--- a/experiment_results/best_case/Elevator/4wise/1_best_case.xlsx
+++ b/experiment_results/best_case/Elevator/4wise/1_best_case.xlsx
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>449</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>221</v>
+        <v>123</v>
       </c>
       <c r="H4">
         <v>449</v>
@@ -572,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>312</v>
+        <v>164</v>
       </c>
       <c r="H5">
         <v>449</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7">
         <v>449</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>207</v>
+        <v>63</v>
       </c>
       <c r="H8">
         <v>449</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>268</v>
+        <v>60</v>
       </c>
       <c r="H9">
         <v>449</v>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H10">
         <v>449</v>
@@ -796,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H12">
         <v>449</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H13">
         <v>449</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="H14">
         <v>449</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="H15">
         <v>449</v>
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>449</v>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>192</v>
+        <v>58</v>
       </c>
       <c r="H4">
         <v>449</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>163</v>
+        <v>34</v>
       </c>
       <c r="H5">
         <v>449</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>186</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>449</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="H9">
         <v>449</v>
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H12">
         <v>449</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H14">
         <v>449</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="H15">
         <v>449</v>
@@ -1462,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>449</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>449</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>449</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H14">
         <v>449</v>
@@ -1878,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H15">
         <v>449</v>
@@ -1955,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>449</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>221</v>
+        <v>123</v>
       </c>
       <c r="H4">
         <v>449</v>
@@ -2051,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>312</v>
+        <v>164</v>
       </c>
       <c r="H5">
         <v>449</v>
@@ -2115,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7">
         <v>449</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>207</v>
+        <v>63</v>
       </c>
       <c r="H8">
         <v>449</v>
@@ -2179,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>268</v>
+        <v>60</v>
       </c>
       <c r="H9">
         <v>449</v>
@@ -2211,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H10">
         <v>449</v>
@@ -2275,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H12">
         <v>449</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H13">
         <v>449</v>
@@ -2339,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="H14">
         <v>449</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="H15">
         <v>449</v>
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>449</v>
@@ -2512,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>181</v>
+        <v>52</v>
       </c>
       <c r="H4">
         <v>449</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="H5">
         <v>449</v>
@@ -2640,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>175</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>449</v>
@@ -2672,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="H9">
         <v>449</v>
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H13">
         <v>449</v>
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H14">
         <v>449</v>
@@ -2864,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="H15">
         <v>449</v>
